--- a/wash_P/QAT.xlsx
+++ b/wash_P/QAT.xlsx
@@ -82994,7 +82994,7 @@
         <v>0</v>
       </c>
       <c r="ACG26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACH26" t="n">
         <v>0</v>
